--- a/speed_radiant_difference/sat-ecf-local-sep-5-2017.xlsx
+++ b/speed_radiant_difference/sat-ecf-local-sep-5-2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oldE\fireballs\Satellite Data\JPL-bolide-reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Projects\Thesis\speed_radiant_difference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9698E5BE-38CF-4357-B692-3E6F546C8FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA156B58-AD77-45D5-B1A3-48E9C7E8382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="870" windowWidth="32835" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,9 +192,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,26 +227,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,26 +262,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,7 +441,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>-10.8</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -514,13 +480,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.8</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>1.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -528,13 +494,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59.8</v>
+        <v>39.1</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>-12.8</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -542,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -554,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>49.3</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -563,7 +529,7 @@
       </c>
       <c r="C6">
         <f>-F2*SIN(B4*J1)*COS(B3*J1)-F3*SIN(J1*B3)*SIN(J1*B4)+F4*COS(B4*J1)</f>
-        <v>2.197362090477192</v>
+        <v>-23.896733891078426</v>
       </c>
       <c r="D6">
         <v>0.1</v>
@@ -572,7 +538,7 @@
         <v>19</v>
       </c>
       <c r="F6">
-        <v>-116.9</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -581,7 +547,7 @@
       </c>
       <c r="C7">
         <f>-F2*SIN(B3*J1)+F3*COS(B3*J1)</f>
-        <v>4.2703268039550322</v>
+        <v>2.6700973661016238</v>
       </c>
       <c r="D7">
         <v>0.1</v>
@@ -593,7 +559,7 @@
       </c>
       <c r="C8">
         <f>-F2*COS(B4*J1)*COS(B3*J1)-F3*COS(B4*J1)*SIN(J1*B3)-F4*SIN(B4*J1)</f>
-        <v>16.088999621814803</v>
+        <v>-0.86411191087774952</v>
       </c>
       <c r="D8">
         <v>0.1</v>
@@ -610,7 +576,7 @@
       </c>
       <c r="D10">
         <f>ATAN2(C6,C7)/J1+180</f>
-        <v>242.77122043578342</v>
+        <v>353.62451034489607</v>
       </c>
       <c r="E10" s="1">
         <f>((C6^2*D7^2+C7^2*D6^2)/(C6^2+C7^2))^0.5</f>
@@ -623,7 +589,7 @@
       </c>
       <c r="D11">
         <f>ATAN((C6^2+C7^2)^0.5/C8)/J1</f>
-        <v>16.620176150558713</v>
+        <v>-87.941869081399204</v>
       </c>
       <c r="F11">
         <v>23.841359763572328</v>
@@ -635,7 +601,7 @@
       </c>
       <c r="D12">
         <f>(F2^2+F3^2+F4^2)^0.5</f>
-        <v>16.790473489452289</v>
+        <v>24.060964236705065</v>
       </c>
       <c r="E12">
         <v>0.8</v>
